--- a/data/trans_dic/DC_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/DC_R-Edad-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,61; 13,38</t>
+          <t>3,95; 13,79</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>17,68; 31,17</t>
+          <t>18,08; 30,88</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>11,88; 20,27</t>
+          <t>11,51; 19,38</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,69; 15,06</t>
+          <t>7,55; 15,07</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>24,06; 37,13</t>
+          <t>23,97; 36,77</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>17,06; 24,93</t>
+          <t>17,24; 25,63</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,89; 19,61</t>
+          <t>12,95; 19,61</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>24,84; 33,62</t>
+          <t>25,37; 33,66</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>20,75; 25,7</t>
+          <t>20,86; 25,64</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>18,58; 27,78</t>
+          <t>18,77; 27,71</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>34,91; 41,59</t>
+          <t>34,65; 41,31</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>27,52; 33,87</t>
+          <t>27,56; 33,66</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>27,25; 34,53</t>
+          <t>27,29; 34,35</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>43,03; 49,26</t>
+          <t>43,05; 49,31</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>36,07; 41,08</t>
+          <t>36,09; 40,92</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>34,93; 41,09</t>
+          <t>34,8; 41,05</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>57,24; 73,45</t>
+          <t>56,98; 74,21</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>48,61; 61,99</t>
+          <t>48,7; 63,14</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>21,67; 24,97</t>
+          <t>21,48; 24,77</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>39,73; 47,77</t>
+          <t>39,73; 47,97</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>31,69; 36,64</t>
+          <t>31,64; 37,0</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/DC_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/DC_R-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,95; 13,79</t>
+          <t>3,61; 13,38</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>18,08; 30,88</t>
+          <t>17,68; 31,17</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>11,51; 19,38</t>
+          <t>11,88; 20,27</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,55; 15,07</t>
+          <t>7,69; 15,06</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>23,97; 36,77</t>
+          <t>24,06; 37,13</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>17,24; 25,63</t>
+          <t>17,06; 24,93</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,95; 19,61</t>
+          <t>12,89; 19,61</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>25,37; 33,66</t>
+          <t>24,84; 33,62</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>20,86; 25,64</t>
+          <t>20,75; 25,7</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>18,77; 27,71</t>
+          <t>18,58; 27,78</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>34,65; 41,31</t>
+          <t>34,91; 41,59</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>27,56; 33,66</t>
+          <t>27,52; 33,87</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>27,29; 34,35</t>
+          <t>27,25; 34,53</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>43,05; 49,31</t>
+          <t>43,03; 49,26</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>36,09; 40,92</t>
+          <t>36,07; 41,08</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>34,8; 41,05</t>
+          <t>34,93; 41,09</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>56,98; 74,21</t>
+          <t>57,24; 73,45</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>48,7; 63,14</t>
+          <t>48,61; 61,99</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>21,48; 24,77</t>
+          <t>21,67; 24,97</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>39,73; 47,97</t>
+          <t>39,73; 47,77</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>31,64; 37,0</t>
+          <t>31,69; 36,64</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/DC_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/DC_R-Edad-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,58%</t>
+          <t>7,82%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>23,95%</t>
+          <t>24,48%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>15,51%</t>
+          <t>15,14%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,61; 13,38</t>
+          <t>3,71; 13,9</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>17,68; 31,17</t>
+          <t>18,14; 31,91</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>11,88; 20,27</t>
+          <t>11,54; 19,85</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>10,82%</t>
+          <t>10,85%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>28,89%</t>
+          <t>36,74%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>20,55%</t>
+          <t>25,02%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,69; 15,06</t>
+          <t>7,7; 15,14</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>24,06; 37,13</t>
+          <t>25,51; 60,89</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>17,06; 24,93</t>
+          <t>17,76; 43,91</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>15,98%</t>
+          <t>16,14%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>29,9%</t>
+          <t>28,87%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>23,26%</t>
+          <t>22,82%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,89; 19,61</t>
+          <t>12,93; 19,84</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>24,84; 33,62</t>
+          <t>20,88; 33,28</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>20,75; 25,7</t>
+          <t>19,66; 25,27</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>23,91%</t>
+          <t>18,42%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>38,07%</t>
+          <t>36,74%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>31,1%</t>
+          <t>26,58%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>18,58; 27,78</t>
+          <t>8,24; 26,36</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>34,91; 41,59</t>
+          <t>31,2; 40,43</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>27,52; 33,87</t>
+          <t>16,11; 32,45</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>30,91%</t>
+          <t>30,99%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>46,14%</t>
+          <t>46,07%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>38,5%</t>
+          <t>38,44%</t>
         </is>
       </c>
     </row>
@@ -779,24 +779,24 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>27,25; 34,53</t>
+          <t>27,26; 34,6</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>43,03; 49,26</t>
+          <t>42,96; 49,23</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>36,07; 41,08</t>
+          <t>36,07; 41,12</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -806,17 +806,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>37,92%</t>
+          <t>32,19%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>62,53%</t>
+          <t>67,26%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>52,57%</t>
+          <t>54,04%</t>
         </is>
       </c>
     </row>
@@ -829,24 +829,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>34,93; 41,09</t>
+          <t>28,28; 36,42</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>57,24; 73,45</t>
+          <t>49,63; 87,8</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>48,61; 61,99</t>
+          <t>41,07; 78,79</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>23,25%</t>
+          <t>45,2%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>42,07%</t>
+          <t>64,46%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>33,25%</t>
+          <t>56,77%</t>
         </is>
       </c>
     </row>
@@ -879,29 +879,79 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>21,67; 24,97</t>
+          <t>40,58; 49,6</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>39,73; 47,77</t>
+          <t>61,17; 67,55</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>31,69; 36,64</t>
+          <t>53,84; 59,33</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>21,61%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>44,01%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>33,2%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>16,86; 23,95</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>39,51; 54,29</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>29,69; 39,06</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -909,6 +959,7 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/DC_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/DC_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,71; 13,9</t>
+          <t>3,98; 14,62</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>18,14; 31,91</t>
+          <t>18,67; 31,38</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>11,54; 19,85</t>
+          <t>11,3; 19,52</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,7; 15,14</t>
+          <t>7,59; 15,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>25,51; 60,89</t>
+          <t>25,13; 61,1</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>17,76; 43,91</t>
+          <t>17,92; 43,41</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,93; 19,84</t>
+          <t>13,2; 20,19</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>20,88; 33,28</t>
+          <t>22,07; 33,16</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>19,66; 25,27</t>
+          <t>19,15; 25,36</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,24; 26,36</t>
+          <t>7,75; 26,6</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>31,2; 40,43</t>
+          <t>30,79; 40,17</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>16,11; 32,45</t>
+          <t>15,38; 32,27</t>
         </is>
       </c>
     </row>
@@ -779,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>27,26; 34,6</t>
+          <t>26,95; 34,55</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>42,96; 49,23</t>
+          <t>42,74; 49,06</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>36,07; 41,12</t>
+          <t>35,8; 40,85</t>
         </is>
       </c>
     </row>
@@ -829,17 +830,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>28,28; 36,42</t>
+          <t>28,4; 36,15</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>49,63; 87,8</t>
+          <t>49,54; 85,91</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>41,07; 78,79</t>
+          <t>41,18; 75,06</t>
         </is>
       </c>
     </row>
@@ -879,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>40,58; 49,6</t>
+          <t>40,95; 49,86</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>61,17; 67,55</t>
+          <t>60,88; 67,8</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>53,84; 59,33</t>
+          <t>53,84; 59,31</t>
         </is>
       </c>
     </row>
@@ -929,17 +930,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>16,86; 23,95</t>
+          <t>17,15; 23,88</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>39,51; 54,29</t>
+          <t>39,58; 54,24</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>29,69; 39,06</t>
+          <t>29,83; 40,09</t>
         </is>
       </c>
     </row>
@@ -964,4 +965,684 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con dolor crónico (incluye Otro dolor crónico)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>31291</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>76671</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>107961</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>15927; 58463</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>58459; 98273</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>80562; 139182</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>45953</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>188168</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>234121</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>32133; 64971</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>128688; 312893</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>167676; 406140</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>358</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>86562</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>170884</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>257446</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>70803; 108291</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>130681; 196303</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>216069; 286190</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>441</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>608</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>163566</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>261928</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>425494</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>68771; 236125</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>219461; 286364</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>246106; 516591</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>456</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>658</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>173923</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>252420</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>426343</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>151253; 193898</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>234158; 268790</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>397035; 453118</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>415</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>118499</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>409189</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>527688</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>104547; 133080</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>301386; 522675</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>402129; 732950</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>576</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>786</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>127804</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>274490</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>402294</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>115801; 140976</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>259237; 288732</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>381476; 420286</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>2325</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>3222</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>747597</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>1633750</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>2381347</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>593275; 826212</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>1469461; 2013722</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>2139444; 2875621</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>